--- a/Output/sugarcane_year_dry_result.xlsx
+++ b/Output/sugarcane_year_dry_result.xlsx
@@ -48,7 +48,7 @@
     <t>(.216699)</t>
   </si>
   <si>
-    <t>1950 x Percentage Decrease in Dry Tenant Area in 1953</t>
+    <t>1950 x Percentage Decrease in Dry Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">15526.06   </t>
@@ -69,7 +69,7 @@
     <t>(16248.62)</t>
   </si>
   <si>
-    <t>1951 x Percentage Decrease in Dry Tenant Area in 1953</t>
+    <t>1951 x Percentage Decrease in Dry Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">15683.28** </t>
@@ -84,7 +84,7 @@
     <t>(6192.633)</t>
   </si>
   <si>
-    <t>1954 x Percentage Decrease in Dry Tenant Area in 1953</t>
+    <t>1954 x Percentage Decrease in Dry Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">-856.1293   </t>
@@ -105,7 +105,7 @@
     <t>(12942.71)</t>
   </si>
   <si>
-    <t>1955 x Percentage Decrease in Dry Tenant Area in 1953</t>
+    <t>1955 x Percentage Decrease in Dry Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">-22643.85   </t>
@@ -126,7 +126,7 @@
     <t>(15889.23)</t>
   </si>
   <si>
-    <t>1956 x Percentage Decrease in Dry Tenant Area in 1953</t>
+    <t>1956 x Percentage Decrease in Dry Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">-22355.17   </t>
